--- a/similarities/split_global/harmonic_similarity_timestamps_219.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:01:02.100000', '0:01:11.780000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_30</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=58.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G/3', 'C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:02:38.720000', '0:02:42.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:07.834297', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=158.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=7.834297</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:02:20.580000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+          <t>('0:00:34.866000', '0:00:59.164000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'G:maj', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'D#:min/A#', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'A', 'G']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:44.095000', '0:00:47.926000')]</t>
+          <t>('0:00:08.060000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:10.712128', '0:01:15.058526')]</t>
+          <t>('0:02:09.120000', '0:02:11.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=44.095']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=8.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=70.712128']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:18.141156', '0:00:25.014263')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:40.030000', '0:00:43.842000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=18.141156']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=40.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G/3', 'G/#4', 'D']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>['F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:56.324374', '0:00:59.960294')]</t>
+          <t>('0:00:09.240000', '0:00:12.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:40.219000', '0:00:45.818000')]</t>
+          <t>('0:00:36.732085', '0:00:41.248366')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=56.324374']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-179#t=40.219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'C']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb/3', 'F:min', 'Ab:maj']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:29.889421', '0:00:33.969206')]</t>
+          <t>('0:03:46.220000', '0:03:49.640000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:28.578000', '0:00:31.777000')]</t>
+          <t>('0:00:07.265318', '0:00:12.547858')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=29.889421']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=28.578']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=7.265318</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_292</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C', 'F:min']]</t>
+          <t>['E', 'D/2', 'A/5', 'E', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:17.300000')]</t>
+          <t>('0:01:13.890000', '0:01:26.025000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.598321', '0:00:14.743083')]</t>
+          <t>('0:00:01.701428', '0:00:07.007188')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=74.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=73.89</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=10.598321']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-292#t=1.701428</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:13.460000', '0:00:18.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:37.120000', '0:00:40.300000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=13.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['G', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:7', 'F:7', 'Bb']]</t>
+          <t>['F:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:55.620000', '0:01:03.080000')]</t>
+          <t>('0:00:27.609000', '0:00:32.201000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:24.250000', '0:00:28.150000')]</t>
+          <t>('0:00:29.840000', '0:00:37.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=27.609</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=29.84</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['F#', 'B', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:27.080000', '0:00:47.900000'), ('0:00:00.820000', '0:00:06.760000'), ('0:00:55.720000', '0:01:04.640000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:36.820000', '0:00:38.820000'), ('0:00:09.260000', '0:00:13.900000'), ('0:00:36.520000', '0:00:38.280000')]</t>
+          <t>('0:00:29.008095', '0:00:34.615714')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=27.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=55.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=36.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=36.52']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
